--- a/Input/Example.xlsx
+++ b/Input/Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itaykarkason/Python Projects/תרגום קובץ אקסל/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F64AE-96A9-E541-B11F-3759F63147D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CA8743-A22B-8E44-982A-E36B3AAA18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>The toddler’s endless tantrum caused the entire plane anxiety.</t>
-  </si>
-  <si>
-    <t>AN NOMIZEIS OTI QA PLHRWSW GIA AUTA TOTE POU NA DEIS TI SE PERIMENEI META.</t>
   </si>
   <si>
     <t>Als ik jou mijn telefoonnummer geef, zou je het houden of weggooien?</t>
@@ -902,10 +899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -960,20 +957,20 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -981,7 +978,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -989,7 +986,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -997,7 +994,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1005,18 +1002,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
